--- a/Documentation/БД сущности и атрибуты.xlsx
+++ b/Documentation/БД сущности и атрибуты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\PycharmProjects\kursachDjango\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E7312A-F4F3-4E17-9542-D66F7A990906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5742F-BE12-4A0F-A9B1-3A2C890E7CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4BEFACA2-B28F-4FE9-AD75-E734FD40FE8D}"/>
+    <workbookView xWindow="28365" yWindow="0" windowWidth="10140" windowHeight="15585" xr2:uid="{4BEFACA2-B28F-4FE9-AD75-E734FD40FE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
-  <si>
-    <t>id order</t>
-  </si>
-  <si>
-    <t>id customer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
   <si>
     <t>integer</t>
   </si>
   <si>
-    <t>id worker</t>
-  </si>
-  <si>
-    <t>id invoice_comp</t>
-  </si>
-  <si>
-    <t>id car</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>trans</t>
   </si>
   <si>
-    <t>id invoice_trans</t>
-  </si>
-  <si>
     <t>trans_comp</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t>destination_point</t>
   </si>
   <si>
-    <t>id trans</t>
-  </si>
-  <si>
     <t>text date (dd/mm/yyyy)</t>
   </si>
   <si>
@@ -202,6 +181,33 @@
   </si>
   <si>
     <t>integet</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>customer.id</t>
+  </si>
+  <si>
+    <t>worker.id</t>
+  </si>
+  <si>
+    <t>trans.id</t>
+  </si>
+  <si>
+    <t>car.id</t>
+  </si>
+  <si>
+    <t>invoice_comp.id</t>
+  </si>
+  <si>
+    <t>invoice_jp.id</t>
+  </si>
+  <si>
+    <t>invoice_trans.id</t>
+  </si>
+  <si>
+    <t>invoice_jp</t>
   </si>
 </sst>
 </file>
@@ -616,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007F340B-245A-4CB8-8D54-C72EFFB4945C}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,603 +643,727 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
+      <c r="A25" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
+      <c r="A27" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
+      <c r="A28" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
       <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
+      <c r="A36" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
+      <c r="A37" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
+      <c r="A38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
+      <c r="A44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>52</v>
+      <c r="A45" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
+      <c r="A46" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
+      <c r="C50" t="s">
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>47</v>
+      <c r="A51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>49</v>
+      <c r="A54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>26</v>
+      <c r="A55" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
+      <c r="A59" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>31</v>
+      <c r="A60" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/БД сущности и атрибуты.xlsx
+++ b/Documentation/БД сущности и атрибуты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\4 курс\8 семестр\КИС\Курсовая\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E7312A-F4F3-4E17-9542-D66F7A990906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF06E91-365C-409A-B325-C8FABB108D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4BEFACA2-B28F-4FE9-AD75-E734FD40FE8D}"/>
+    <workbookView xWindow="27330" yWindow="0" windowWidth="11175" windowHeight="15585" xr2:uid="{4BEFACA2-B28F-4FE9-AD75-E734FD40FE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
-  <si>
-    <t>id order</t>
-  </si>
-  <si>
-    <t>id customer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
   <si>
     <t>integer</t>
   </si>
   <si>
-    <t>id worker</t>
-  </si>
-  <si>
-    <t>id invoice_comp</t>
-  </si>
-  <si>
-    <t>id car</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -102,18 +87,12 @@
     <t>full_name</t>
   </si>
   <si>
-    <t>invoice_comp</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>payer</t>
   </si>
   <si>
-    <t>receipent</t>
-  </si>
-  <si>
     <t>date_form</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
     <t>trans</t>
   </si>
   <si>
-    <t>id invoice_trans</t>
-  </si>
-  <si>
     <t>trans_comp</t>
   </si>
   <si>
@@ -174,18 +150,12 @@
     <t>date_receive</t>
   </si>
   <si>
-    <t>invoice_trans</t>
-  </si>
-  <si>
     <t>departure_point</t>
   </si>
   <si>
     <t>destination_point</t>
   </si>
   <si>
-    <t>id trans</t>
-  </si>
-  <si>
     <t>text date (dd/mm/yyyy)</t>
   </si>
   <si>
@@ -202,6 +172,57 @@
   </si>
   <si>
     <t>integet</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>customer.id</t>
+  </si>
+  <si>
+    <t>worker.id</t>
+  </si>
+  <si>
+    <t>trans.id</t>
+  </si>
+  <si>
+    <t>car.id</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>invoice.id (only trans)</t>
+  </si>
+  <si>
+    <t>invoice.id (only jp)</t>
+  </si>
+  <si>
+    <t>invoice.id (only comp)</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>assigning</t>
+  </si>
+  <si>
+    <t>SBTS.id</t>
+  </si>
+  <si>
+    <t>PTD.id</t>
+  </si>
+  <si>
+    <t>invoice.id (only ptd)</t>
+  </si>
+  <si>
+    <t>invoice.id (only SBTS)</t>
   </si>
 </sst>
 </file>
@@ -262,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,6 +306,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -292,13 +324,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Вычисление" xfId="2" builtinId="22"/>
@@ -616,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007F340B-245A-4CB8-8D54-C72EFFB4945C}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,97 +670,97 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -735,366 +768,366 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
+      <c r="A25" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
+      <c r="D33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>26</v>
+      <c r="A34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
+      <c r="A37" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
+      <c r="A38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
+      <c r="A46" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1102,138 +1135,286 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>49</v>
+      <c r="A54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>26</v>
+      <c r="A55" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
       </c>
-      <c r="C55" t="s">
-        <v>19</v>
-      </c>
       <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
         <v>31</v>
       </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>32</v>
+      <c r="A61" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
